--- a/plots/basic_stats/two_var_stats/allmus_subject_matter_vs_governance-PC.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_subject_matter_vs_governance-PC.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O112"/>
+  <dimension ref="A1:O116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,67 +365,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>/Government/Cadw</t>
+          <t>Government-Cadw</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>/Government/Local Authority</t>
+          <t>Government-Local_Authority</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>/Government/National</t>
+          <t>Government-National</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>/Government/Other</t>
+          <t>Government-Other</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/English Heritage</t>
+          <t>Independent-English_Heritage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Historic Environment Scotland</t>
+          <t>Independent-Historic_Environment_Scotland</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/National Trust</t>
+          <t>Independent-National_Trust</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/National Trust for Scotland</t>
+          <t>Independent-National_Trust_for_Scotland</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Not for profit</t>
+          <t>Independent-Not_for_profit</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Private</t>
+          <t>Independent-Private</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Unknown</t>
+          <t>Independent-Unknown</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>/University</t>
+          <t>University</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>/Unknown</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -437,7 +437,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>/Archaeology/Greek and Egyptian</t>
+          <t>Archaeology</t>
         </is>
       </c>
       <c r="B2">
@@ -468,32 +468,32 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.125</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>/Archaeology/Medieval</t>
+          <t>Archaeology-Greek_and_Egyptian</t>
         </is>
       </c>
       <c r="B3">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -505,44 +505,44 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.118</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>/Archaeology/Mixed</t>
+          <t>Archaeology-Medieval</t>
         </is>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="C4">
-        <v>0.075</v>
+        <v>0.095</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -554,44 +554,44 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.174</v>
+        <v>0.047</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="L4">
-        <v>0.05</v>
+        <v>0.047</v>
       </c>
       <c r="M4">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.449</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>/Archaeology/Other</t>
+          <t>Archaeology-Mixed</t>
         </is>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.025</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -612,35 +612,35 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.075</v>
+        <v>0.189</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.142</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>/Archaeology/Prehistory</t>
+          <t>Archaeology-Other</t>
         </is>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.125</v>
+        <v>0.024</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -649,148 +649,148 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.075</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.199</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="K6">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.649</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>/Archaeology/Roman</t>
+          <t>Archaeology-Prehistory</t>
         </is>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.374</v>
+        <v>0.118</v>
       </c>
       <c r="D7">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.199</v>
+        <v>0.024</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="H7">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.324</v>
+        <v>0.189</v>
       </c>
       <c r="K7">
-        <v>0.05</v>
+        <v>0.166</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="M7">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="O7">
-        <v>1.022</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>/Arts/Ceramics</t>
+          <t>Archaeology-Roman</t>
         </is>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.05</v>
+        <v>0.331</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.189</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.224</v>
+        <v>0.307</v>
       </c>
       <c r="K8">
-        <v>0.15</v>
+        <v>0.047</v>
       </c>
       <c r="L8">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.05</v>
+        <v>0.024</v>
       </c>
       <c r="N8">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.524</v>
+        <v>0.9460000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>/Arts/Costume and textiles</t>
+          <t>Arts-Ceramics</t>
         </is>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.125</v>
+        <v>0.047</v>
       </c>
       <c r="D9">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -808,38 +808,38 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.274</v>
+        <v>0.213</v>
       </c>
       <c r="K9">
-        <v>0.075</v>
+        <v>0.166</v>
       </c>
       <c r="L9">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="M9">
-        <v>0.025</v>
+        <v>0.047</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="O9">
-        <v>0.549</v>
+        <v>0.521</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>/Arts/Crafts</t>
+          <t>Arts-Costume_and_textiles</t>
         </is>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.025</v>
+        <v>0.118</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -857,35 +857,35 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.025</v>
+        <v>0.284</v>
       </c>
       <c r="K10">
-        <v>0.125</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.175</v>
+        <v>0.5449999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>/Arts/Design</t>
+          <t>Arts-Crafts</t>
         </is>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -906,41 +906,41 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.024</v>
       </c>
       <c r="K11">
-        <v>0.025</v>
+        <v>0.118</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.175</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>/Arts/Fine and decorative arts</t>
+          <t>Arts-Design</t>
         </is>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2.019</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.374</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -955,84 +955,84 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.196</v>
+        <v>0.118</v>
       </c>
       <c r="K12">
-        <v>0.1</v>
+        <v>0.024</v>
       </c>
       <c r="L12">
-        <v>0.199</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.798</v>
+        <v>0.047</v>
       </c>
       <c r="N12">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>4.736</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>/Arts/Glass</t>
+          <t>Arts-Fine_and_decorative_arts</t>
         </is>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.05</v>
+        <v>1.939</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.378</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.025</v>
+        <v>1.182</v>
       </c>
       <c r="K13">
-        <v>0.1</v>
+        <v>0.118</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.166</v>
       </c>
       <c r="M13">
-        <v>0.025</v>
+        <v>0.757</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="O13">
-        <v>0.2</v>
+        <v>4.636</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>/Arts/Literature</t>
+          <t>Arts-Glass</t>
         </is>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.025</v>
+        <v>0.047</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1053,35 +1053,35 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.075</v>
+        <v>0.024</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.118</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="N14">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.125</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>/Arts/Music</t>
+          <t>Arts-Literature</t>
         </is>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1102,47 +1102,47 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.125</v>
+        <v>0.095</v>
       </c>
       <c r="K15">
-        <v>0.199</v>
+        <v>0.024</v>
       </c>
       <c r="L15">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.15</v>
+        <v>0.024</v>
       </c>
       <c r="N15">
-        <v>0.025</v>
+        <v>0.047</v>
       </c>
       <c r="O15">
-        <v>0.5740000000000001</v>
+        <v>0.214</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>/Arts/Other</t>
+          <t>Arts-Music</t>
         </is>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.05</v>
+        <v>0.024</v>
       </c>
       <c r="D16">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1151,77 +1151,77 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.174</v>
+        <v>0.166</v>
       </c>
       <c r="K16">
-        <v>0.075</v>
+        <v>0.213</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="M16">
-        <v>0.025</v>
+        <v>0.142</v>
       </c>
       <c r="N16">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="O16">
-        <v>0.424</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>/Arts/Photography</t>
+          <t>Arts-Other</t>
         </is>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05</v>
+        <v>0.166</v>
       </c>
       <c r="K17">
-        <v>0.075</v>
+        <v>0.166</v>
       </c>
       <c r="L17">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="O17">
-        <v>0.175</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>/Belief and identity/Church treasuries</t>
+          <t>Arts-Photography</t>
         </is>
       </c>
       <c r="B18">
@@ -1243,34 +1243,34 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.15</v>
+        <v>0.047</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.142</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.15</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>/Belief and identity/Ethnic group</t>
+          <t>Belief_and_identity</t>
         </is>
       </c>
       <c r="B19">
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1298,28 +1298,28 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.399</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5740000000000001</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>/Belief and identity/Freemasons</t>
+          <t>Belief_and_identity-Church_treasuries</t>
         </is>
       </c>
       <c r="B20">
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.199</v>
+        <v>0.142</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1362,13 +1362,13 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.199</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>/Belief and identity/Other</t>
+          <t>Belief_and_identity-Ethnic_group</t>
         </is>
       </c>
       <c r="B21">
@@ -1396,35 +1396,35 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1</v>
+        <v>0.378</v>
       </c>
       <c r="K21">
-        <v>0.05</v>
+        <v>0.142</v>
       </c>
       <c r="L21">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="O21">
-        <v>0.175</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>/Belief and identity/Religion</t>
+          <t>Belief_and_identity-Freemasons</t>
         </is>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1445,13 +1445,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.349</v>
+        <v>0.213</v>
       </c>
       <c r="K22">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1460,20 +1460,20 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.474</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>/Belief and identity/Religious buildings</t>
+          <t>Belief_and_identity-Other</t>
         </is>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.075</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.174</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.075</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1494,35 +1494,35 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.548</v>
+        <v>0.095</v>
       </c>
       <c r="K23">
-        <v>0.025</v>
+        <v>0.095</v>
       </c>
       <c r="L23">
-        <v>0.05</v>
+        <v>0.024</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.972</v>
+        <v>0.214</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>/Buildings/Civic</t>
+          <t>Belief_and_identity-Religion</t>
         </is>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.15</v>
+        <v>0.024</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1534,240 +1534,240 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="H24">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.025</v>
+        <v>0.497</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.095</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.25</v>
+        <v>0.6870000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>/Buildings/Houses/Large houses</t>
+          <t>Belief_and_identity-Religious_buildings</t>
         </is>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.922</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D25">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.274</v>
+        <v>0.166</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.118</v>
       </c>
       <c r="H25">
-        <v>2.866</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.274</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.997</v>
+        <v>0.497</v>
       </c>
       <c r="K25">
-        <v>4.761</v>
+        <v>0.024</v>
       </c>
       <c r="L25">
-        <v>0.05</v>
+        <v>0.047</v>
       </c>
       <c r="M25">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.05</v>
+        <v>0.024</v>
       </c>
       <c r="O25">
-        <v>10.294</v>
+        <v>0.947</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>/Buildings/Houses/Medium houses</t>
+          <t>Buildings-Civic</t>
         </is>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0.548</v>
+        <v>0.166</v>
       </c>
       <c r="D26">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.075</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.324</v>
+        <v>0.024</v>
       </c>
       <c r="I26">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>0.499</v>
+        <v>0.024</v>
       </c>
       <c r="K26">
-        <v>0.075</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="O26">
-        <v>1.646</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>/Buildings/Houses/Small houses</t>
+          <t>Buildings-Houses-Large_houses</t>
         </is>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0.224</v>
+        <v>0.875</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.025</v>
+        <v>0.26</v>
       </c>
       <c r="G27">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0.324</v>
+        <v>2.696</v>
       </c>
       <c r="I27">
-        <v>0.025</v>
+        <v>0.284</v>
       </c>
       <c r="J27">
-        <v>0.274</v>
+        <v>0.993</v>
       </c>
       <c r="K27">
-        <v>0.1</v>
+        <v>4.493</v>
       </c>
       <c r="L27">
-        <v>0.025</v>
+        <v>0.047</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="N27">
-        <v>0.025</v>
+        <v>0.047</v>
       </c>
       <c r="O27">
-        <v>1.047</v>
+        <v>9.789</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>/Buildings/Other</t>
+          <t>Buildings-Houses-Medium_houses</t>
         </is>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0.249</v>
+        <v>0.52</v>
       </c>
       <c r="D28">
-        <v>0.05</v>
+        <v>0.047</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="G28">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="H28">
-        <v>0.075</v>
+        <v>0.402</v>
       </c>
       <c r="I28">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="J28">
-        <v>0.349</v>
+        <v>0.52</v>
       </c>
       <c r="K28">
-        <v>0.05</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="L28">
-        <v>0.05</v>
+        <v>0.047</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>0.923</v>
+        <v>1.726</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>/Buildings/Palace</t>
+          <t>Buildings-Houses-Small_houses</t>
         </is>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0.025</v>
+        <v>0.189</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1779,47 +1779,47 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>0.118</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="J29">
-        <v>0.125</v>
+        <v>0.213</v>
       </c>
       <c r="K29">
-        <v>0.025</v>
+        <v>0.095</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="O29">
-        <v>0.175</v>
+        <v>0.711</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>/Buildings/Penal</t>
+          <t>Buildings-Other</t>
         </is>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0.199</v>
+        <v>0.213</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1828,44 +1828,44 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="J30">
-        <v>0.1</v>
+        <v>0.355</v>
       </c>
       <c r="K30">
-        <v>0.025</v>
+        <v>0.047</v>
       </c>
       <c r="L30">
-        <v>0.025</v>
+        <v>0.047</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30">
-        <v>0.05</v>
+        <v>0.047</v>
       </c>
       <c r="O30">
-        <v>0.399</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>/Buildings/School</t>
+          <t>Buildings-Palace</t>
         </is>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0.075</v>
+        <v>0.024</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0.199</v>
+        <v>0.142</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -1901,20 +1901,20 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>0.324</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>/Buildings/Shops</t>
+          <t>Buildings-Penal</t>
         </is>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>0.189</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1935,38 +1935,38 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0.05</v>
+        <v>0.095</v>
       </c>
       <c r="K32">
-        <v>0.075</v>
+        <v>0.024</v>
       </c>
       <c r="L32">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="O32">
-        <v>0.15</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>/Communications/Other</t>
+          <t>Buildings-School</t>
         </is>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0.025</v>
+        <v>0.047</v>
       </c>
       <c r="D33">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1984,13 +1984,13 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0.075</v>
+        <v>0.213</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -1999,26 +1999,26 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <v>0.125</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>/Communications/Post</t>
+          <t>Buildings-Shops</t>
         </is>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2033,13 +2033,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.1</v>
+        <v>0.047</v>
       </c>
       <c r="K34">
-        <v>0.025</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2048,13 +2048,13 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <v>0.175</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>/Communications/Radio</t>
+          <t>Communications</t>
         </is>
       </c>
       <c r="B35">
@@ -2082,10 +2082,10 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.075</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>0.075</v>
+        <v>0.024</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -2097,23 +2097,23 @@
         <v>0</v>
       </c>
       <c r="O35">
-        <v>0.15</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>/Food and drink</t>
+          <t>Communications-Other</t>
         </is>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2131,41 +2131,41 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.075</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="K36">
-        <v>0.424</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="O36">
-        <v>0.599</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Clocks and watches</t>
+          <t>Communications-Post</t>
         </is>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2180,10 +2180,10 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="K37">
-        <v>0.05</v>
+        <v>0.024</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -2195,20 +2195,20 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <v>0.15</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Industrial life</t>
+          <t>Communications-Radio</t>
         </is>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2229,10 +2229,10 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.174</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -2244,20 +2244,20 @@
         <v>0</v>
       </c>
       <c r="O38">
-        <v>0.299</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Metals</t>
+          <t>Food_and_drink</t>
         </is>
       </c>
       <c r="B39">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0.075</v>
+        <v>0.024</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2278,13 +2278,13 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.199</v>
+        <v>0.095</v>
       </c>
       <c r="K39">
-        <v>0.025</v>
+        <v>0.426</v>
       </c>
       <c r="L39">
-        <v>0.025</v>
+        <v>0.047</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -2293,23 +2293,23 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>0.349</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Mining and quarrying</t>
+          <t>Industry_and_manufacture-Clocks_and_watches</t>
         </is>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0.199</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2321,44 +2321,44 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.075</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0.548</v>
+        <v>0.095</v>
       </c>
       <c r="K40">
-        <v>0.199</v>
+        <v>0.047</v>
       </c>
       <c r="L40">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="O40">
-        <v>1.246</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Mixed</t>
+          <t>Industry_and_manufacture-Industrial_life</t>
         </is>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>0.125</v>
+        <v>0.118</v>
       </c>
       <c r="D41">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.1</v>
+        <v>0.166</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -2391,20 +2391,20 @@
         <v>0</v>
       </c>
       <c r="O41">
-        <v>0.25</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Other</t>
+          <t>Industry_and_manufacture-Metals</t>
         </is>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="C42">
-        <v>0.075</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2425,38 +2425,38 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.374</v>
+        <v>0.189</v>
       </c>
       <c r="K42">
-        <v>0.174</v>
+        <v>0.024</v>
       </c>
       <c r="L42">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="M42">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="N42">
         <v>0</v>
       </c>
       <c r="O42">
-        <v>0.673</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Potteries</t>
+          <t>Industry_and_manufacture-Mining_and_quarrying</t>
         </is>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>0.1</v>
+        <v>0.189</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2468,44 +2468,44 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0.125</v>
+        <v>0.544</v>
       </c>
       <c r="K43">
-        <v>0.025</v>
+        <v>0.189</v>
       </c>
       <c r="L43">
-        <v>0.025</v>
+        <v>0.142</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="O43">
-        <v>0.275</v>
+        <v>1.206</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Print</t>
+          <t>Industry_and_manufacture-Mixed</t>
         </is>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>0.025</v>
+        <v>0.189</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0.05</v>
+        <v>0.095</v>
       </c>
       <c r="K44">
-        <v>0.05</v>
+        <v>0.024</v>
       </c>
       <c r="L44">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -2538,20 +2538,20 @@
         <v>0</v>
       </c>
       <c r="O44">
-        <v>0.15</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Steam and engines</t>
+          <t>Industry_and_manufacture-Other</t>
         </is>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>0.025</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2572,35 +2572,35 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0.15</v>
+        <v>0.449</v>
       </c>
       <c r="K45">
-        <v>0.05</v>
+        <v>0.307</v>
       </c>
       <c r="L45">
-        <v>0.05</v>
+        <v>0.024</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
       <c r="O45">
-        <v>0.275</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>/Industry and manufacture/Textiles</t>
+          <t>Industry_and_manufacture-Potteries</t>
         </is>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>0.324</v>
+        <v>0.095</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2609,47 +2609,47 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.374</v>
+        <v>0.118</v>
       </c>
       <c r="K46">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="L46">
-        <v>0.05</v>
+        <v>0.024</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="N46">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="O46">
-        <v>0.873</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>/Leisure and sport/Cricket</t>
+          <t>Industry_and_manufacture-Print</t>
         </is>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2670,13 +2670,13 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0.075</v>
+        <v>0.047</v>
       </c>
       <c r="K47">
-        <v>0.125</v>
+        <v>0.047</v>
       </c>
       <c r="L47">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -2685,20 +2685,20 @@
         <v>0</v>
       </c>
       <c r="O47">
-        <v>0.225</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>/Leisure and sport/Fairgrounds and amusements</t>
+          <t>Industry_and_manufacture-Steam_and_engines</t>
         </is>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0.125</v>
+        <v>0.142</v>
       </c>
       <c r="K48">
-        <v>0.1</v>
+        <v>0.047</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -2734,20 +2734,20 @@
         <v>0</v>
       </c>
       <c r="O48">
-        <v>0.225</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>/Leisure and sport/Film Cinema and TV</t>
+          <t>Industry_and_manufacture-Textiles</t>
         </is>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2756,40 +2756,40 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0.075</v>
+        <v>0.378</v>
       </c>
       <c r="K49">
-        <v>0.299</v>
+        <v>0.024</v>
       </c>
       <c r="L49">
-        <v>0.075</v>
+        <v>0.047</v>
       </c>
       <c r="M49">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>0.05</v>
+        <v>0.047</v>
       </c>
       <c r="O49">
-        <v>0.524</v>
+        <v>0.804</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>/Leisure and sport/Other</t>
+          <t>Leisure_and_sport-Cricket</t>
         </is>
       </c>
       <c r="B50">
@@ -2817,13 +2817,13 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0.199</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="K50">
-        <v>0.224</v>
+        <v>0.118</v>
       </c>
       <c r="L50">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -2832,13 +2832,13 @@
         <v>0</v>
       </c>
       <c r="O50">
-        <v>0.448</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>/Leisure and sport/Rugby and football</t>
+          <t>Leisure_and_sport-Fairgrounds_and_amusements</t>
         </is>
       </c>
       <c r="B51">
@@ -2866,13 +2866,13 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0.125</v>
+        <v>0.118</v>
       </c>
       <c r="K51">
-        <v>0.299</v>
+        <v>0.095</v>
       </c>
       <c r="L51">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -2881,23 +2881,23 @@
         <v>0</v>
       </c>
       <c r="O51">
-        <v>0.449</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>/Leisure and sport/Toys and models</t>
+          <t>Leisure_and_sport-Film_Cinema_and_TV</t>
         </is>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2909,44 +2909,44 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>0.174</v>
+        <v>0.095</v>
       </c>
       <c r="K52">
-        <v>1.047</v>
+        <v>0.26</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="N52">
-        <v>0.05</v>
+        <v>0.047</v>
       </c>
       <c r="O52">
-        <v>1.421</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>/Local Histories</t>
+          <t>Leisure_and_sport-Other</t>
         </is>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>7.851</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>0.075</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2958,41 +2958,41 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>10.992</v>
+        <v>0.284</v>
       </c>
       <c r="K53">
-        <v>0.399</v>
+        <v>0.236</v>
       </c>
       <c r="L53">
-        <v>1.446</v>
+        <v>0.024</v>
       </c>
       <c r="M53">
         <v>0</v>
       </c>
       <c r="N53">
-        <v>0.598</v>
+        <v>0</v>
       </c>
       <c r="O53">
-        <v>21.386</v>
+        <v>0.5439999999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>/Medicine and health/Hospital</t>
+          <t>Leisure_and_sport-Rugby_and_football</t>
         </is>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -3013,13 +3013,13 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0.374</v>
+        <v>0.118</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>0.378</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -3028,23 +3028,23 @@
         <v>0</v>
       </c>
       <c r="O54">
-        <v>0.399</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>/Medicine and health/Other</t>
+          <t>Leisure_and_sport-Toys_and_models</t>
         </is>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3056,44 +3056,44 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>0.15</v>
+        <v>0.166</v>
       </c>
       <c r="K55">
-        <v>0.05</v>
+        <v>1.04</v>
       </c>
       <c r="L55">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="M55">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N55">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="O55">
-        <v>0.35</v>
+        <v>1.349</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>/Medicine and health/Professional association</t>
+          <t>Local_Histories</t>
         </is>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>7.59</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3105,41 +3105,41 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0.274</v>
+        <v>10.972</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>0.473</v>
       </c>
       <c r="L56">
-        <v>0.025</v>
+        <v>1.348</v>
       </c>
       <c r="M56">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>0.615</v>
       </c>
       <c r="O56">
-        <v>0.324</v>
+        <v>21.069</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>/Mixed/Bygones</t>
+          <t>Medicine_and_health-Hospital</t>
         </is>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -3160,38 +3160,38 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0.05</v>
+        <v>0.378</v>
       </c>
       <c r="K57">
-        <v>0.224</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
       <c r="N57">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="O57">
-        <v>0.349</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>/Mixed/Encyclopaedic</t>
+          <t>Medicine_and_health-Other</t>
         </is>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>2.094</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3209,41 +3209,41 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0.424</v>
+        <v>0.142</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="L58">
-        <v>0.05</v>
+        <v>0.024</v>
       </c>
       <c r="M58">
-        <v>0.174</v>
+        <v>0.095</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="O58">
-        <v>2.892</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>/Mixed/Other</t>
+          <t>Medicine_and_health-Professional_association</t>
         </is>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>1.022</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -3252,44 +3252,44 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0.349</v>
+        <v>0.236</v>
       </c>
       <c r="K59">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="M59">
-        <v>0.125</v>
+        <v>0.024</v>
       </c>
       <c r="N59">
         <v>0</v>
       </c>
       <c r="O59">
-        <v>1.746</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>/Natural world/Dinosaurs</t>
+          <t>Mixed-Bygones</t>
         </is>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3307,38 +3307,38 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0.025</v>
+        <v>0.047</v>
       </c>
       <c r="K60">
-        <v>0.075</v>
+        <v>0.236</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="M60">
         <v>0</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="O60">
-        <v>0.125</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>/Natural world/Fossils</t>
+          <t>Mixed-Encyclopaedic</t>
         </is>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>0.025</v>
+        <v>2.01</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>0.142</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3356,41 +3356,41 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0.025</v>
+        <v>0.473</v>
       </c>
       <c r="K61">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>0.166</v>
       </c>
       <c r="N61">
         <v>0</v>
       </c>
       <c r="O61">
-        <v>0.1</v>
+        <v>2.815</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>/Natural world/Geology</t>
+          <t>Mixed-Other</t>
         </is>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>0.05</v>
+        <v>1.04</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -3399,34 +3399,34 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0.075</v>
+        <v>0.402</v>
       </c>
       <c r="K62">
-        <v>0.125</v>
+        <v>0.26</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="M62">
-        <v>0.125</v>
+        <v>0.142</v>
       </c>
       <c r="N62">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="O62">
-        <v>0.4</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>/Natural world/Herbaria and gardening</t>
+          <t>Natural_world</t>
         </is>
       </c>
       <c r="B63">
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3454,38 +3454,38 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0.075</v>
+        <v>0</v>
       </c>
       <c r="K63">
         <v>0</v>
       </c>
       <c r="L63">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M63">
-        <v>0.075</v>
+        <v>0.024</v>
       </c>
       <c r="N63">
         <v>0</v>
       </c>
       <c r="O63">
-        <v>0.225</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>/Natural world/Mixed</t>
+          <t>Natural_world-Dinosaurs</t>
         </is>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>0.274</v>
+        <v>0.024</v>
       </c>
       <c r="D64">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3503,35 +3503,35 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0.075</v>
+        <v>0.024</v>
       </c>
       <c r="K64">
-        <v>0.025</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="L64">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="M64">
-        <v>0.075</v>
+        <v>0</v>
       </c>
       <c r="N64">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="O64">
-        <v>0.549</v>
+        <v>0.119</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>/Natural world/Other</t>
+          <t>Natural_world-Fossils</t>
         </is>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>0.1</v>
+        <v>0.024</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -3552,13 +3552,13 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>0.075</v>
+        <v>0.024</v>
       </c>
       <c r="K65">
-        <v>0.05</v>
+        <v>0.047</v>
       </c>
       <c r="L65">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -3567,23 +3567,23 @@
         <v>0</v>
       </c>
       <c r="O65">
-        <v>0.25</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>/Natural world/Zoology</t>
+          <t>Natural_world-Geology</t>
         </is>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3601,41 +3601,41 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>0.118</v>
       </c>
       <c r="L66">
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0.125</v>
+        <v>0.118</v>
       </c>
       <c r="N66">
         <v>0</v>
       </c>
       <c r="O66">
-        <v>0.125</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>/Other</t>
+          <t>Natural_world-Herbaria_and_gardening</t>
         </is>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>0.05</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="E67">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -3650,38 +3650,38 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0.449</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="K67">
-        <v>0.847</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>0.075</v>
+        <v>0.047</v>
       </c>
       <c r="M67">
-        <v>0.125</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="N67">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="O67">
-        <v>1.796</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>/Personality/Art</t>
+          <t>Natural_world-Mixed</t>
         </is>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>0.125</v>
+        <v>0.284</v>
       </c>
       <c r="D68">
-        <v>0.025</v>
+        <v>0.047</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3693,41 +3693,41 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0.199</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="L68">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="O68">
-        <v>0.399</v>
+        <v>0.5449999999999999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>/Personality/Explorer</t>
+          <t>Natural_world-Other</t>
         </is>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>0.05</v>
+        <v>0.095</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3745,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>0.1</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -3763,20 +3763,20 @@
         <v>0</v>
       </c>
       <c r="O69">
-        <v>0.175</v>
+        <v>0.237</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>/Personality/Literary</t>
+          <t>Natural_world-Zoology</t>
         </is>
       </c>
       <c r="B70">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>0.548</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -3791,47 +3791,47 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>0.249</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>0.823</v>
+        <v>0</v>
       </c>
       <c r="K70">
-        <v>0.075</v>
+        <v>0.024</v>
       </c>
       <c r="L70">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M70">
-        <v>0.025</v>
+        <v>0.118</v>
       </c>
       <c r="N70">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O70">
-        <v>2.07</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>/Personality/Music</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>0.025</v>
+        <v>0.095</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -3840,44 +3840,44 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>0.075</v>
+        <v>0.473</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>0.922</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="M71">
-        <v>0</v>
+        <v>0.118</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>0.142</v>
       </c>
       <c r="O71">
-        <v>0.15</v>
+        <v>1.868</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>/Personality/Other</t>
+          <t>Personality-Art</t>
         </is>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72">
-        <v>0.125</v>
+        <v>0.118</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3889,41 +3889,41 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>0.075</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="I72">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>0.424</v>
+        <v>0.189</v>
       </c>
       <c r="K72">
-        <v>0.174</v>
+        <v>0.024</v>
       </c>
       <c r="L72">
-        <v>0.05</v>
+        <v>0.024</v>
       </c>
       <c r="M72">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="N72">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="O72">
-        <v>0.948</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>/Personality/Political</t>
+          <t>Personality-Explorer</t>
         </is>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>0.224</v>
+        <v>0.047</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -3938,13 +3938,13 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="J73">
-        <v>0.224</v>
+        <v>0.095</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -3956,23 +3956,23 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="O73">
-        <v>0.523</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>/Personality/Religious</t>
+          <t>Personality-Literary</t>
         </is>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="C74">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -3987,41 +3987,41 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>0.236</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>0.118</v>
       </c>
       <c r="J74">
-        <v>0.249</v>
+        <v>0.78</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>0.095</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="N74">
-        <v>0.025</v>
+        <v>0.095</v>
       </c>
       <c r="O74">
-        <v>0.324</v>
+        <v>1.963</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>/Personality/Scientific</t>
+          <t>Personality-Music</t>
         </is>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>0.075</v>
+        <v>0.024</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>0.025</v>
+        <v>0.047</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>0.15</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -4057,20 +4057,20 @@
         <v>0</v>
       </c>
       <c r="O75">
-        <v>0.275</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>/Rural Industry/Farming</t>
+          <t>Personality-Other</t>
         </is>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>0.274</v>
+        <v>0.118</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -4085,41 +4085,41 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="I76">
-        <v>0.025</v>
+        <v>0.047</v>
       </c>
       <c r="J76">
-        <v>0.324</v>
+        <v>0.426</v>
       </c>
       <c r="K76">
-        <v>0.748</v>
+        <v>0.189</v>
       </c>
       <c r="L76">
-        <v>0.125</v>
+        <v>0.047</v>
       </c>
       <c r="M76">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="N76">
-        <v>0.15</v>
+        <v>0.024</v>
       </c>
       <c r="O76">
-        <v>1.646</v>
+        <v>0.946</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>/Rural Industry/Forges</t>
+          <t>Personality-Political</t>
         </is>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>0.189</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -4134,41 +4134,41 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>0.025</v>
+        <v>0.047</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0.05</v>
+        <v>0.236</v>
       </c>
       <c r="K77">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="L77">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="M77">
         <v>0</v>
       </c>
       <c r="N77">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="O77">
-        <v>0.15</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>/Rural Industry/Other</t>
+          <t>Personality-Religious</t>
         </is>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>0.025</v>
+        <v>0.047</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -4183,93 +4183,93 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>0.1</v>
+        <v>0.284</v>
       </c>
       <c r="K78">
-        <v>0.1</v>
+        <v>0.024</v>
       </c>
       <c r="L78">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M78">
         <v>0</v>
       </c>
       <c r="N78">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="O78">
-        <v>0.275</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>/Rural Industry/Rural life</t>
+          <t>Personality-Scientific</t>
         </is>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79">
-        <v>0.125</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D79">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="I79">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J79">
-        <v>0.274</v>
+        <v>0.142</v>
       </c>
       <c r="K79">
-        <v>0.274</v>
+        <v>0.024</v>
       </c>
       <c r="L79">
-        <v>0.075</v>
+        <v>0</v>
       </c>
       <c r="M79">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N79">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="O79">
-        <v>0.998</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>/Rural Industry/Textiles</t>
+          <t>Rural_Industry-Farming</t>
         </is>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>0.025</v>
+        <v>0.26</v>
       </c>
       <c r="D80">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -4284,38 +4284,38 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="J80">
-        <v>0.125</v>
+        <v>0.331</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>0.709</v>
       </c>
       <c r="L80">
-        <v>0.075</v>
+        <v>0.118</v>
       </c>
       <c r="M80">
         <v>0</v>
       </c>
       <c r="N80">
-        <v>0.025</v>
+        <v>0.142</v>
       </c>
       <c r="O80">
-        <v>0.275</v>
+        <v>1.584</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>/Rural Industry/Watermills</t>
+          <t>Rural_Industry-Forges</t>
         </is>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81">
-        <v>0.174</v>
+        <v>0.024</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -4330,41 +4330,41 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>0.299</v>
+        <v>0.047</v>
       </c>
       <c r="K81">
-        <v>0.125</v>
+        <v>0.024</v>
       </c>
       <c r="L81">
-        <v>0.125</v>
+        <v>0.024</v>
       </c>
       <c r="M81">
         <v>0</v>
       </c>
       <c r="N81">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="O81">
-        <v>0.748</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>/Rural Industry/Windmills</t>
+          <t>Rural_Industry-Other</t>
         </is>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>0.125</v>
+        <v>0.024</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -4373,25 +4373,25 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82">
-        <v>0.274</v>
+        <v>0.095</v>
       </c>
       <c r="K82">
-        <v>0.025</v>
+        <v>0.095</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -4400,23 +4400,23 @@
         <v>0</v>
       </c>
       <c r="O82">
-        <v>0.474</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>/Science and technology/Computing and gaming</t>
+          <t>Rural_Industry-Rural_life</t>
         </is>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>0.118</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -4431,41 +4431,41 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="J83">
-        <v>0.125</v>
+        <v>0.26</v>
       </c>
       <c r="K83">
-        <v>0.05</v>
+        <v>0.284</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="M83">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="N83">
-        <v>0</v>
+        <v>0.118</v>
       </c>
       <c r="O83">
-        <v>0.175</v>
+        <v>0.946</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>/Science and technology/Other</t>
+          <t>Rural_Industry-Textiles</t>
         </is>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>0.15</v>
+        <v>0.024</v>
       </c>
       <c r="D84">
-        <v>0.05</v>
+        <v>0.024</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -4480,41 +4480,41 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="J84">
-        <v>0.125</v>
+        <v>0.142</v>
       </c>
       <c r="K84">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="M84">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N84">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="O84">
-        <v>0.4</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>/Sea and seafaring/Boats and ships</t>
+          <t>Rural_Industry-Watermills</t>
         </is>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>0.174</v>
+        <v>0.166</v>
       </c>
       <c r="D85">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -4526,19 +4526,19 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0.723</v>
+        <v>0.284</v>
       </c>
       <c r="K85">
-        <v>0.125</v>
+        <v>0.118</v>
       </c>
       <c r="L85">
-        <v>0.025</v>
+        <v>0.118</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -4547,20 +4547,20 @@
         <v>0</v>
       </c>
       <c r="O85">
-        <v>1.072</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>/Sea and seafaring/Fishing</t>
+          <t>Rural_Industry-Windmills</t>
         </is>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86">
-        <v>0.025</v>
+        <v>0.118</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -4569,47 +4569,47 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0.199</v>
+        <v>0.26</v>
       </c>
       <c r="K86">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="L86">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="M86">
         <v>0</v>
       </c>
       <c r="N86">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="O86">
-        <v>0.324</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>/Sea and seafaring/Lighthouses</t>
+          <t>Science_and_technology-Computing_and_gaming</t>
         </is>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -4624,16 +4624,16 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>0.15</v>
+        <v>0.118</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -4642,26 +4642,26 @@
         <v>0</v>
       </c>
       <c r="N87">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="O87">
-        <v>0.25</v>
+        <v>0.165</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>/Sea and seafaring/Mixed</t>
+          <t>Science_and_technology-Other</t>
         </is>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>0.299</v>
+        <v>0.142</v>
       </c>
       <c r="D88">
-        <v>0.05</v>
+        <v>0.047</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -4679,38 +4679,38 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>0.648</v>
+        <v>0.118</v>
       </c>
       <c r="K88">
-        <v>0.125</v>
+        <v>0.024</v>
       </c>
       <c r="L88">
         <v>0</v>
       </c>
       <c r="M88">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="N88">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="O88">
-        <v>1.147</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>/Sea and seafaring/Other</t>
+          <t>Sea_and_seafaring-Boats_and_ships</t>
         </is>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>0.166</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -4728,13 +4728,13 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>0.075</v>
+        <v>0.851</v>
       </c>
       <c r="K89">
-        <v>0.075</v>
+        <v>0.189</v>
       </c>
       <c r="L89">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -4743,20 +4743,20 @@
         <v>0</v>
       </c>
       <c r="O89">
-        <v>0.175</v>
+        <v>1.254</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>/Services/Fire</t>
+          <t>Sea_and_seafaring-Fishing</t>
         </is>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90">
-        <v>0.075</v>
+        <v>0.024</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -4777,41 +4777,41 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>0.224</v>
+        <v>0.189</v>
       </c>
       <c r="K90">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="L90">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="M90">
         <v>0</v>
       </c>
       <c r="N90">
-        <v>0.025</v>
+        <v>0.047</v>
       </c>
       <c r="O90">
-        <v>0.374</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>/Services/Other</t>
+          <t>Sea_and_seafaring-Lighthouses</t>
         </is>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -4820,16 +4820,16 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91">
-        <v>0.05</v>
+        <v>0.142</v>
       </c>
       <c r="K91">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L91">
         <v>0</v>
@@ -4838,26 +4838,26 @@
         <v>0</v>
       </c>
       <c r="N91">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="O91">
-        <v>0.15</v>
+        <v>0.237</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>/Services/Police</t>
+          <t>Sea_and_seafaring-Mixed</t>
         </is>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>0.1</v>
+        <v>0.284</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -4875,28 +4875,28 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>0.224</v>
+        <v>0.615</v>
       </c>
       <c r="K92">
-        <v>0.025</v>
+        <v>0.142</v>
       </c>
       <c r="L92">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M92">
         <v>0</v>
       </c>
       <c r="N92">
-        <v>0.1</v>
+        <v>0.024</v>
       </c>
       <c r="O92">
-        <v>0.549</v>
+        <v>1.112</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>/Services/RNLI</t>
+          <t>Sea_and_seafaring-Other</t>
         </is>
       </c>
       <c r="B93">
@@ -4924,13 +4924,13 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>0.125</v>
+        <v>0.118</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="L93">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="M93">
         <v>0</v>
@@ -4939,23 +4939,23 @@
         <v>0</v>
       </c>
       <c r="O93">
-        <v>0.125</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>/Transport/Aviation</t>
+          <t>Services-Fire</t>
         </is>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94">
-        <v>0.025</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D94">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -4973,41 +4973,41 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>0.499</v>
+        <v>0.213</v>
       </c>
       <c r="K94">
-        <v>0.15</v>
+        <v>0.024</v>
       </c>
       <c r="L94">
-        <v>0.1</v>
+        <v>0.024</v>
       </c>
       <c r="M94">
         <v>0</v>
       </c>
       <c r="N94">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="O94">
-        <v>0.799</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>/Transport/Bicycles</t>
+          <t>Services-Other</t>
         </is>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -5022,13 +5022,13 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>0.025</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="K95">
-        <v>0.1</v>
+        <v>0.047</v>
       </c>
       <c r="L95">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="M95">
         <v>0</v>
@@ -5037,26 +5037,26 @@
         <v>0</v>
       </c>
       <c r="O95">
-        <v>0.175</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>/Transport/Buses and trams</t>
+          <t>Services-Police</t>
         </is>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96">
-        <v>0.025</v>
+        <v>0.095</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -5071,35 +5071,35 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>0.349</v>
+        <v>0.26</v>
       </c>
       <c r="K96">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="L96">
-        <v>0.025</v>
+        <v>0.095</v>
       </c>
       <c r="M96">
         <v>0</v>
       </c>
       <c r="N96">
-        <v>0</v>
+        <v>0.118</v>
       </c>
       <c r="O96">
-        <v>0.424</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>/Transport/Canals</t>
+          <t>Services-RNLI</t>
         </is>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>0.075</v>
+        <v>0</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -5120,13 +5120,13 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>0.249</v>
+        <v>0.118</v>
       </c>
       <c r="K97">
         <v>0</v>
       </c>
       <c r="L97">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -5135,23 +5135,23 @@
         <v>0</v>
       </c>
       <c r="O97">
-        <v>0.374</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>/Transport/Cars and motorbikes</t>
+          <t>Transport-Aviation</t>
         </is>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -5169,13 +5169,13 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>0.374</v>
+        <v>0.449</v>
       </c>
       <c r="K98">
-        <v>1.022</v>
+        <v>0.095</v>
       </c>
       <c r="L98">
-        <v>0.174</v>
+        <v>0.095</v>
       </c>
       <c r="M98">
         <v>0</v>
@@ -5184,20 +5184,20 @@
         <v>0</v>
       </c>
       <c r="O98">
-        <v>1.595</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>/Transport/Mixed</t>
+          <t>Transport-Bicycles</t>
         </is>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>0.075</v>
+        <v>0.024</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -5218,13 +5218,13 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>0.548</v>
+        <v>0.047</v>
       </c>
       <c r="K99">
-        <v>0.174</v>
+        <v>0.095</v>
       </c>
       <c r="L99">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -5233,20 +5233,20 @@
         <v>0</v>
       </c>
       <c r="O99">
-        <v>0.847</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>/Transport/Other</t>
+          <t>Transport-Buses_and_trams</t>
         </is>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -5267,13 +5267,13 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>0.1</v>
+        <v>0.331</v>
       </c>
       <c r="K100">
-        <v>0.125</v>
+        <v>0.024</v>
       </c>
       <c r="L100">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -5282,23 +5282,23 @@
         <v>0</v>
       </c>
       <c r="O100">
-        <v>0.275</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>/Transport/Trains and railways</t>
+          <t>Transport-Canals</t>
         </is>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101">
-        <v>0.274</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D101">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -5316,35 +5316,35 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>2.069</v>
+        <v>0.236</v>
       </c>
       <c r="K101">
-        <v>0.299</v>
+        <v>0</v>
       </c>
       <c r="L101">
-        <v>0.474</v>
+        <v>0.047</v>
       </c>
       <c r="M101">
         <v>0</v>
       </c>
       <c r="N101">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O101">
-        <v>3.266</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>/Utilities/Gas and electricity</t>
+          <t>Transport-Cars_and_motorbikes</t>
         </is>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -5365,41 +5365,41 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>0.075</v>
+        <v>0.473</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="L102">
-        <v>0.025</v>
+        <v>0.166</v>
       </c>
       <c r="M102">
         <v>0</v>
       </c>
       <c r="N102">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="O102">
-        <v>0.175</v>
+        <v>1.703</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>/Utilities/Water and waste</t>
+          <t>Transport-Mixed</t>
         </is>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103">
-        <v>0.15</v>
+        <v>0.095</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -5414,38 +5414,38 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>0.548</v>
+        <v>0.473</v>
       </c>
       <c r="K103">
-        <v>0.025</v>
+        <v>0.166</v>
       </c>
       <c r="L103">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="M103">
         <v>0</v>
       </c>
       <c r="N103">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="O103">
-        <v>0.773</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>/War and conflict/Airforce</t>
+          <t>Transport-Other</t>
         </is>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="D104">
-        <v>0.075</v>
+        <v>0</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -5463,44 +5463,44 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>0.748</v>
+        <v>0.095</v>
       </c>
       <c r="K104">
-        <v>0.1</v>
+        <v>0.118</v>
       </c>
       <c r="L104">
-        <v>0.374</v>
+        <v>0.024</v>
       </c>
       <c r="M104">
         <v>0</v>
       </c>
       <c r="N104">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O104">
-        <v>1.422</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>/War and conflict/Bunker</t>
+          <t>Transport-Trains_and_railways</t>
         </is>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105">
-        <v>0.05</v>
+        <v>0.284</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="F105">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -5512,35 +5512,35 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>0.05</v>
+        <v>2.081</v>
       </c>
       <c r="K105">
-        <v>0.125</v>
+        <v>0.378</v>
       </c>
       <c r="L105">
-        <v>0</v>
+        <v>0.473</v>
       </c>
       <c r="M105">
         <v>0</v>
       </c>
       <c r="N105">
-        <v>0.025</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="O105">
-        <v>0.275</v>
+        <v>3.381</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>/War and conflict/Castles and forts</t>
+          <t>Utilities-Gas_and_electricity</t>
         </is>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106">
-        <v>0.374</v>
+        <v>0</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -5549,56 +5549,56 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>0.374</v>
+        <v>0</v>
       </c>
       <c r="G106">
-        <v>0.1</v>
+        <v>0.024</v>
       </c>
       <c r="H106">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106">
-        <v>0.399</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="K106">
-        <v>0.324</v>
+        <v>0</v>
       </c>
       <c r="L106">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="M106">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="N106">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="O106">
-        <v>1.696</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>/War and conflict/Event or site</t>
+          <t>Utilities-Water_and_waste</t>
         </is>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107">
-        <v>0.15</v>
+        <v>0.142</v>
       </c>
       <c r="D107">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="F107">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -5607,41 +5607,41 @@
         <v>0</v>
       </c>
       <c r="I107">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="J107">
-        <v>0.224</v>
+        <v>0.52</v>
       </c>
       <c r="K107">
-        <v>0.299</v>
+        <v>0.024</v>
       </c>
       <c r="L107">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M107">
         <v>0</v>
       </c>
       <c r="N107">
-        <v>0.05</v>
+        <v>0.024</v>
       </c>
       <c r="O107">
-        <v>0.848</v>
+        <v>0.734</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>/War and conflict/Military</t>
+          <t>War_and_conflict-Airforce</t>
         </is>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="D108">
-        <v>0.15</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -5653,50 +5653,50 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108">
-        <v>0.449</v>
+        <v>0.946</v>
       </c>
       <c r="K108">
-        <v>0.174</v>
+        <v>0.236</v>
       </c>
       <c r="L108">
-        <v>0.174</v>
+        <v>0.331</v>
       </c>
       <c r="M108">
         <v>0</v>
       </c>
       <c r="N108">
-        <v>0.05</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="O108">
-        <v>1.022</v>
+        <v>1.702</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>/War and conflict/Navy</t>
+          <t>War_and_conflict-Bunker</t>
         </is>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="D109">
-        <v>0.199</v>
+        <v>0</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -5708,93 +5708,93 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>0.125</v>
+        <v>0.047</v>
       </c>
       <c r="K109">
-        <v>0.025</v>
+        <v>0.118</v>
       </c>
       <c r="L109">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="M109">
         <v>0</v>
       </c>
       <c r="N109">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="O109">
-        <v>0.399</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>/War and conflict/Other</t>
+          <t>War_and_conflict-Castles_and_forts</t>
         </is>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>0.355</v>
       </c>
       <c r="D110">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>0.378</v>
       </c>
       <c r="G110">
-        <v>0.025</v>
+        <v>0.095</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>0.095</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
-        <v>0.174</v>
+        <v>0.402</v>
       </c>
       <c r="K110">
-        <v>0.174</v>
+        <v>0.284</v>
       </c>
       <c r="L110">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M110">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="N110">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="O110">
-        <v>0.473</v>
+        <v>1.633</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>/War and conflict/Regiment</t>
+          <t>War_and_conflict-Event_or_site</t>
         </is>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="C111">
-        <v>0.1</v>
+        <v>0.142</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -5803,74 +5803,270 @@
         <v>0</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="J111">
-        <v>2.991</v>
+        <v>0.26</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>0.307</v>
       </c>
       <c r="L111">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="M111">
         <v>0</v>
       </c>
       <c r="N111">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="O111">
-        <v>3.091</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
+          <t>War_and_conflict-Military</t>
+        </is>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0.142</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0.024</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0.497</v>
+      </c>
+      <c r="K112">
+        <v>0.236</v>
+      </c>
+      <c r="L112">
+        <v>0.142</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="O112">
+        <v>1.112</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>War_and_conflict-Navy</t>
+        </is>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0.189</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0.118</v>
+      </c>
+      <c r="K113">
+        <v>0.024</v>
+      </c>
+      <c r="L113">
+        <v>0.024</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0.024</v>
+      </c>
+      <c r="O113">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>War_and_conflict-Other</t>
+        </is>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0.024</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0.024</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0.189</v>
+      </c>
+      <c r="K114">
+        <v>0.213</v>
+      </c>
+      <c r="L114">
+        <v>0.024</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0.024</v>
+      </c>
+      <c r="O114">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>War_and_conflict-Regiment</t>
+        </is>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0.166</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0.024</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>2.908</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>3.098</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
           <t>COL_TOT</t>
         </is>
       </c>
-      <c r="B112">
-        <v>0.07500000000000001</v>
-      </c>
-      <c r="C112">
-        <v>22.64</v>
-      </c>
-      <c r="D112">
-        <v>1.873</v>
-      </c>
-      <c r="E112">
-        <v>0.15</v>
-      </c>
-      <c r="F112">
-        <v>1.296</v>
-      </c>
-      <c r="G112">
-        <v>0.45</v>
-      </c>
-      <c r="H112">
-        <v>4.613</v>
-      </c>
-      <c r="I112">
-        <v>0.649</v>
-      </c>
-      <c r="J112">
-        <v>40.511</v>
-      </c>
-      <c r="K112">
-        <v>16.833</v>
-      </c>
-      <c r="L112">
-        <v>5.666</v>
-      </c>
-      <c r="M112">
-        <v>2.647</v>
-      </c>
-      <c r="N112">
-        <v>2.648</v>
-      </c>
-      <c r="O112">
-        <v>100.051</v>
+      <c r="B116">
+        <v>0.07200000000000001</v>
+      </c>
+      <c r="C116">
+        <v>21.811</v>
+      </c>
+      <c r="D116">
+        <v>1.941</v>
+      </c>
+      <c r="E116">
+        <v>0.239</v>
+      </c>
+      <c r="F116">
+        <v>1.256</v>
+      </c>
+      <c r="G116">
+        <v>0.5</v>
+      </c>
+      <c r="H116">
+        <v>4.379</v>
+      </c>
+      <c r="I116">
+        <v>0.641</v>
+      </c>
+      <c r="J116">
+        <v>41.006</v>
+      </c>
+      <c r="K116">
+        <v>17.764</v>
+      </c>
+      <c r="L116">
+        <v>5.235</v>
+      </c>
+      <c r="M116">
+        <v>2.605</v>
+      </c>
+      <c r="N116">
+        <v>2.606</v>
+      </c>
+      <c r="O116">
+        <v>100.055</v>
       </c>
     </row>
   </sheetData>
